--- a/Elections2.xlsx
+++ b/Elections2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adi\PycharmProjects\Elections\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -631,12 +636,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -661,14 +674,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -715,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,9 +769,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,6 +804,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,25 +980,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -985,7 +1016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1027,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1049,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1060,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1082,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1093,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1137,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1192,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1183,7 +1214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1225,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1205,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1247,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1258,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1269,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1249,7 +1280,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1260,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1302,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1324,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1335,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1315,7 +1346,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1326,7 +1357,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1348,7 +1379,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1390,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1401,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1381,7 +1412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1392,7 +1423,7 @@
         <v>160.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1403,7 +1434,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1414,7 +1445,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1425,7 +1456,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1436,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1447,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1458,7 +1489,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1500,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1480,7 +1511,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1491,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1513,7 +1544,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1524,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1535,7 +1566,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1546,7 +1577,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1557,7 +1588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1568,7 +1599,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1579,7 +1610,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1590,7 +1621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1601,7 +1632,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1612,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1623,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1634,7 +1665,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1645,7 +1676,7 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1656,7 +1687,7 @@
         <v>473.5</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1667,7 +1698,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1678,7 +1709,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1689,7 +1720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1700,7 +1731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1711,7 +1742,7 @@
         <v>408.5</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1722,7 +1753,7 @@
         <v>235.5</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1733,7 +1764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1744,7 +1775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1755,7 +1786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1766,7 +1797,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1777,7 +1808,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1788,7 +1819,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1810,7 +1841,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1821,7 +1852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1832,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1843,7 +1874,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1854,7 +1885,7 @@
         <v>353.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1865,7 +1896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1876,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1887,7 +1918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1898,7 +1929,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1909,7 +1940,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1920,7 +1951,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1931,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1942,7 +1973,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1953,7 +1984,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1964,7 +1995,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1975,7 +2006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1986,7 +2017,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1997,7 +2028,7 @@
         <v>158.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2008,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2019,7 +2050,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2030,7 +2061,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2041,7 +2072,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2052,7 +2083,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2063,7 +2094,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2074,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2085,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2096,7 +2127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2107,7 +2138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2118,7 +2149,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2129,7 +2160,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2140,7 +2171,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2151,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2162,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2173,7 +2204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2184,7 +2215,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2195,7 +2226,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2206,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2217,7 +2248,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>880</v>
       </c>
@@ -2225,7 +2256,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2236,7 +2267,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2247,7 +2278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2258,7 +2289,7 @@
         <v>984.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2269,7 +2300,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2280,7 +2311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2291,7 +2322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2302,7 +2333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2313,7 +2344,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2324,7 +2355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2335,7 +2366,7 @@
         <v>357.5</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2346,7 +2377,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2357,7 +2388,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2368,7 +2399,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2379,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2390,7 +2421,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2401,7 +2432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2412,7 +2443,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2423,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2434,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2445,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2456,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2478,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2489,7 +2520,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2500,7 +2531,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2511,7 +2542,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2522,7 +2553,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2533,7 +2564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2544,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2555,7 +2586,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2566,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2577,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2588,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2599,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2610,7 +2641,7 @@
         <v>389.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2621,7 +2652,7 @@
         <v>544.5</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2632,7 +2663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2643,7 +2674,7 @@
         <v>391.5</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2654,7 +2685,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2665,7 +2696,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2676,7 +2707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2687,7 +2718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2698,7 +2729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2709,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2720,7 +2751,7 @@
         <v>329.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -2731,7 +2762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -2742,7 +2773,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -2753,7 +2784,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -2764,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -2775,7 +2806,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -2786,7 +2817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -2797,7 +2828,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -2808,7 +2839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -2819,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -2830,7 +2861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -2841,7 +2872,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -2852,7 +2883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -2863,7 +2894,7 @@
         <v>243.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -2874,7 +2905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -2885,7 +2916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -2896,7 +2927,7 @@
         <v>221.5</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -2907,7 +2938,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -2918,7 +2949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -2929,7 +2960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -2940,7 +2971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -2951,7 +2982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -2962,7 +2993,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -2973,7 +3004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -2984,7 +3015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -2995,7 +3026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3017,7 +3048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3028,7 +3059,7 @@
         <v>295.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3039,7 +3070,7 @@
         <v>216.5</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3050,7 +3081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3061,7 +3092,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3072,7 +3103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3083,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3094,7 +3125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3105,7 +3136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3116,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3127,7 +3158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3138,7 +3169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3149,7 +3180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3160,7 +3191,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3171,7 +3202,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3182,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3195,5 +3226,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>